--- a/prep_data/2025_upcoming_games.xlsx
+++ b/prep_data/2025_upcoming_games.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,236 +457,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12/04/2025</t>
+          <t>12/18/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/20/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Philadelphia Eagles</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Washington Commanders</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Minnesota Vikings</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/20/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>New York Jets</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>New Orleans Saints</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>New York Giants</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -697,1319 +697,719 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Las Vegas Raiders</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Houston Texans</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Kansas City Chiefs</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12/14/2025</t>
+          <t>12/22/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12/14/2025</t>
+          <t>12/25/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12/14/2025</t>
+          <t>12/25/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12/14/2025</t>
+          <t>12/25/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12/14/2025</t>
+          <t>12/27/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12/14/2025</t>
+          <t>12/27/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12/14/2025</t>
+          <t>12/28/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>12/14/2025</t>
+          <t>12/28/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12/14/2025</t>
+          <t>12/28/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>New Orleans Saints</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Tennessee Titans</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>San Francisco 49ers</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>12/14/2025</t>
+          <t>12/28/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>Jacksonville Jaguars</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>Indianapolis Colts</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Seattle Seahawks</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12/14/2025</t>
+          <t>12/28/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12/14/2025</t>
+          <t>12/28/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>New York Jets</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>12/14/2025</t>
+          <t>12/28/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>12/14/2025</t>
+          <t>12/28/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12/15/2025</t>
+          <t>12/28/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>12/18/2025</t>
+          <t>12/28/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12/20/2025</t>
+          <t>12/29/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12/20/2025</t>
+          <t>01/04/2026</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>12/21/2025</t>
+          <t>01/04/2026</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>12/21/2025</t>
+          <t>01/04/2026</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>12/21/2025</t>
+          <t>01/04/2026</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>12/21/2025</t>
+          <t>01/04/2026</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Houston Texans</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>12/21/2025</t>
+          <t>01/04/2026</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>12/21/2025</t>
+          <t>01/04/2026</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>12/21/2025</t>
+          <t>01/04/2026</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>Cleveland Browns</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>Cincinnati Bengals</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Miami Dolphins</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>12/21/2025</t>
+          <t>01/04/2026</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>12/21/2025</t>
+          <t>01/04/2026</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>12/21/2025</t>
+          <t>01/04/2026</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>New England Patriots</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>12/21/2025</t>
+          <t>01/04/2026</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>New York Giants</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>12/21/2025</t>
+          <t>01/04/2026</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>12/22/2025</t>
+          <t>01/04/2026</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>12/25/2025</t>
+          <t>01/04/2026</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>12/25/2025</t>
+          <t>01/04/2026</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
-        <is>
-          <t>Minnesota Vikings</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>17</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>12/25/2025</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Denver Broncos</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Kansas City Chiefs</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>17</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>12/27/2025</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>New York Giants</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Las Vegas Raiders</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>17</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>12/27/2025</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Houston Texans</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Los Angeles Chargers</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>17</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>12/27/2025</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Baltimore Ravens</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Green Bay Packers</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>17</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>12/27/2025</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Seattle Seahawks</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Carolina Panthers</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>17</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>12/27/2025</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Arizona Cardinals</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Cincinnati Bengals</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>17</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>12/28/2025</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>New Orleans Saints</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Tennessee Titans</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>17</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>12/28/2025</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Jacksonville Jaguars</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Indianapolis Colts</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>17</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>12/28/2025</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Tampa Bay Buccaneers</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Miami Dolphins</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>17</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>12/28/2025</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>New England Patriots</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>New York Jets</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>17</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>12/28/2025</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Pittsburgh Steelers</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Cleveland Browns</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>17</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>12/28/2025</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Philadelphia Eagles</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Buffalo Bills</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>17</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>12/28/2025</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Chicago Bears</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>San Francisco 49ers</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>17</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>12/29/2025</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Los Angeles Rams</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Atlanta Falcons</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>18</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>01/04/2026</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Kansas City Chiefs</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Las Vegas Raiders</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>18</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>01/04/2026</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Arizona Cardinals</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Los Angeles Rams</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>18</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>01/04/2026</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Seattle Seahawks</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>San Francisco 49ers</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>18</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>01/04/2026</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Los Angeles Chargers</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Denver Broncos</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>18</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>01/04/2026</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Indianapolis Colts</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Houston Texans</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>18</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>01/04/2026</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Green Bay Packers</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Minnesota Vikings</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>18</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>01/04/2026</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Detroit Lions</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Chicago Bears</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>18</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>01/04/2026</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Cleveland Browns</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Cincinnati Bengals</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>18</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>01/04/2026</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>New Orleans Saints</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Atlanta Falcons</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>18</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>01/04/2026</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>New York Jets</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Buffalo Bills</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>18</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>01/04/2026</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Miami Dolphins</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>New England Patriots</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>18</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>01/04/2026</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Dallas Cowboys</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>New York Giants</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>18</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>01/04/2026</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Washington Commanders</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Philadelphia Eagles</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>18</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>01/04/2026</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Baltimore Ravens</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Pittsburgh Steelers</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>18</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>01/04/2026</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Carolina Panthers</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Tampa Bay Buccaneers</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>18</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>01/04/2026</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Tennessee Titans</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
         <is>
           <t>Jacksonville Jaguars</t>
         </is>

--- a/prep_data/2025_upcoming_games.xlsx
+++ b/prep_data/2025_upcoming_games.xlsx
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01/04/2026</t>
+          <t>01/03/2026</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1121,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01/04/2026</t>
+          <t>01/03/2026</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1146,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Houston Texans</t>
         </is>
       </c>
     </row>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>New York Giants</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
     </row>
@@ -1266,12 +1266,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
     </row>
@@ -1286,12 +1286,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1306,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
     </row>
@@ -1326,12 +1326,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>New England Patriots</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
     </row>
@@ -1406,12 +1406,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
     </row>
